--- a/data/trans_camb/P48_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P48_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,71</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,28</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-7,92</t>
+          <t>-3,61</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-9,41</t>
+          <t>-5,67</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-3,55</t>
+          <t>-6,37</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-4,34</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-6,12</t>
+          <t>-3,11</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-3,77</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-4,78</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-2,81</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 6,92</t>
+          <t>-17,7; 9,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 9,16</t>
+          <t>-15,2; 10,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 7,83</t>
+          <t>-17,33; 10,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 4,29</t>
+          <t>-20,57; 10,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,07; -0,17</t>
+          <t>-13,91; 7,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,58; -1,64</t>
+          <t>-14,96; 3,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 2,68</t>
+          <t>-15,54; 3,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 2,06</t>
+          <t>-12,95; 8,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 0,24</t>
+          <t>-11,35; 4,91</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-11,48; 4,39</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-12,78; 3,37</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-12,11; 5,21</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-6,49%</t>
+          <t>-5,26%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,04%</t>
+          <t>-3,1%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-5,41%</t>
+          <t>-6,31%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-9,38%</t>
+          <t>-7,57%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-17,38%</t>
+          <t>-7,85%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-20,64%</t>
+          <t>-12,33%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-8,1%</t>
+          <t>-13,87%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-9,91%</t>
+          <t>-4,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-13,97%</t>
+          <t>-6,67%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-8,07%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-10,23%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-6,02%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-27,94; 18,45</t>
+          <t>-33,31; 22,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,88; 25,15</t>
+          <t>-28,48; 24,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-25,71; 20,07</t>
+          <t>-33,25; 23,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,62; 10,93</t>
+          <t>-38,75; 25,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,99; -0,36</t>
+          <t>-27,93; 17,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,71; -4,23</t>
+          <t>-29,89; 8,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-20,96; 6,98</t>
+          <t>-31,43; 7,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-22,9; 5,16</t>
+          <t>-25,21; 19,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-28,47; 0,48</t>
+          <t>-22,85; 11,4</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-23,21; 10,07</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-25,84; 8,15</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-24,79; 12,15</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,21</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,45</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,87</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,59</t>
+          <t>-4,82</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,25</t>
+          <t>-6,81</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-4,25</t>
+          <t>-8,9</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>-4,79</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>-3,25</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-2,84</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-4,93</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-3,12</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,0; 4,16</t>
+          <t>-13,53; 11,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 7,3</t>
+          <t>-9,59; 13,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,22; 6,04</t>
+          <t>-11,73; 10,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 5,27</t>
+          <t>-12,97; 11,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 5,05</t>
+          <t>-16,15; 5,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 2,05</t>
+          <t>-16,76; 3,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,55; 2,21</t>
+          <t>-19,71; 1,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 4,25</t>
+          <t>-15,91; 7,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 2,12</t>
+          <t>-11,38; 5,17</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-11,11; 5,12</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-13,44; 3,18</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-11,41; 4,95</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-15,61%</t>
+          <t>-3,74%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-7,34%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-11,61%</t>
+          <t>-2,49%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-11,3%</t>
+          <t>-4,03%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-8,5%</t>
+          <t>-13,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-17,25%</t>
+          <t>-19,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-13,37%</t>
+          <t>-25,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-7,65%</t>
+          <t>-13,77%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-13,96%</t>
+          <t>-9,18%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-8,03%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-13,93%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-8,8%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-39,73; 14,34</t>
+          <t>-33,93; 36,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,49; 25,47</t>
+          <t>-23,97; 44,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-34,12; 21,62</t>
+          <t>-29,07; 36,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,39; 19,26</t>
+          <t>-31,29; 37,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,48; 20,47</t>
+          <t>-40,11; 20,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,5; 8,34</t>
+          <t>-43,03; 13,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,72; 8,17</t>
+          <t>-47,85; 4,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,43; 14,51</t>
+          <t>-41,28; 22,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-30,88; 7,11</t>
+          <t>-29,62; 16,54</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-28,63; 16,23</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-34,03; 11,0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-29,42; 16,48</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-7,66</t>
+          <t>-10,45</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-8,62</t>
+          <t>-11,02</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-5,7</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,5</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,79</t>
+          <t>-5,04</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-6,6</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-6,31</t>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-7,75</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-6,69</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,5</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-21,61; 13,3</t>
+          <t>-23,13; 23,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-22,95; 8,58</t>
+          <t>-31,32; 7,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-23,94; 7,1</t>
+          <t>-31,82; 6,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,74; 13,85</t>
+          <t>-28,56; 15,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-19,11; 7,41</t>
+          <t>-23,05; 18,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,65; 8,56</t>
+          <t>-23,43; 12,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 10,86</t>
+          <t>-20,78; 17,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-16,08; 4,56</t>
+          <t>-17,01; 23,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-16,82; 4,5</t>
+          <t>-15,47; 15,37</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-21,32; 6,71</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-20,66; 7,37</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-16,38; 14,04</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-14,44%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-34,92%</t>
+          <t>-57,66%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-39,3%</t>
+          <t>-60,8%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,29%</t>
+          <t>-31,45%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-25,27%</t>
+          <t>-7,98%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-17,4%</t>
+          <t>-22,45%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-7,66%</t>
+          <t>-8,71%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-30,19%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-28,87%</t>
+          <t>-1,73%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-38,26%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-33,02%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-7,39%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-67,6; 92,62</t>
+          <t>-81,21; 311,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-74,96; 68,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-77,07; 57,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-54,5; 90,05</t>
+          <t>-88,98; 204,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-65,81; 53,19</t>
+          <t>-73,63; 145,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-63,0; 60,52</t>
+          <t>-75,27; 103,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-47,7; 65,75</t>
+          <t>-66,94; 157,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-59,72; 26,34</t>
+          <t>-54,28; 179,78</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-59,81; 28,1</t>
+          <t>-59,4; 124,76</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-75,77; 67,0</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-73,55; 68,99</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-58,27; 113,31</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,76</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,76</t>
+          <t>-3,09</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-5,47</t>
+          <t>-4,01</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-7,12</t>
+          <t>-5,97</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-3,59</t>
+          <t>-6,98</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-3,81</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-5,51</t>
+          <t>-3,01</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-3,73</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-5,1</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-2,64</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 2,72</t>
+          <t>-10,74; 7,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 4,59</t>
+          <t>-9,34; 6,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 2,43</t>
+          <t>-12,17; 5,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 2,26</t>
+          <t>-11,97; 5,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,92; -0,23</t>
+          <t>-10,78; 3,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,58; -1,49</t>
+          <t>-12,87; 0,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 0,46</t>
+          <t>-13,88; -0,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 0,17</t>
+          <t>-9,88; 4,28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,11; -1,52</t>
+          <t>-8,27; 2,92</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-8,77; 2,21</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-10,6; 0,29</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-8,58; 2,95</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-10,47%</t>
+          <t>-4,66%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-5,43%</t>
+          <t>-3,09%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-10,48%</t>
+          <t>-7,82%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-9,25%</t>
+          <t>-6,96%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-14,71%</t>
+          <t>-10,24%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-19,16%</t>
+          <t>-15,24%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-9,82%</t>
+          <t>-17,81%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-10,4%</t>
+          <t>-6,5%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-15,06%</t>
+          <t>-7,66%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-9,47%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-12,95%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-6,71%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-27,0; 8,81</t>
+          <t>-25,39; 19,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,14; 14,08</t>
+          <t>-21,54; 19,82</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-25,58; 7,56</t>
+          <t>-28,15; 14,11</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,62; 6,38</t>
+          <t>-28,58; 16,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-27,34; -0,7</t>
+          <t>-25,35; 7,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,94; -4,35</t>
+          <t>-30,26; 2,29</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 1,32</t>
+          <t>-32,16; -1,31</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-20,29; 0,47</t>
+          <t>-23,0; 12,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-25,52; -4,27</t>
+          <t>-19,85; 8,07</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-20,84; 6,22</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-25,17; 0,79</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-20,4; 8,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
